--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767224BE-0A16-F94A-899C-093AAB6DFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C6060-0A96-224F-8174-E17F0A5B1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,10 +474,12 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f>IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
-        <v>0</v>
+        <v>2023-10-17-1.md</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -494,11 +496,11 @@
         <v>1-</v>
       </c>
       <c r="M2" t="str">
-        <f>"["&amp;B2&amp;"]"</f>
+        <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
       </c>
       <c r="N2" t="str">
-        <f>"---
+        <f t="shared" ref="N2:N12" si="1">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B2 &amp; "
 " &amp; M$1 &amp; ": " &amp; M2 &amp; "
@@ -516,34 +518,31 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
-        <v>0</v>
+      <c r="C3" s="3">
+        <v>45223</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D13" si="2">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
+        <v>2023-10-24-2.md</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G12" si="1">B3 &amp; ". " &amp; F3</f>
+        <f t="shared" ref="G3:G12" si="3">B3 &amp; ". " &amp; F3</f>
         <v xml:space="preserve">2. </v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="2">B3</f>
+        <f t="shared" ref="H3:H12" si="4">B3</f>
         <v>2</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J12" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-</v>
       </c>
       <c r="M3" t="str">
-        <f>"["&amp;B3&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[2]</v>
       </c>
       <c r="N3" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B3 &amp; "
-" &amp; M$1 &amp; ": " &amp; M3 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="1"/>
         <v>---
 layout: post
 session: 2
@@ -556,34 +555,31 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>45230</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-10-31-3.md</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3. </v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>3-</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+        <v>[3]</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">3. </v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>3-</v>
-      </c>
-      <c r="M4" t="str">
-        <f>"["&amp;B4&amp;"]"</f>
-        <v>[3]</v>
-      </c>
-      <c r="N4" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B4 &amp; "
-" &amp; M$1 &amp; ": " &amp; M4 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 3
@@ -596,34 +592,31 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3">
+        <v>45237</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-07-4.md</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4. </v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>4-</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
+        <v>[4]</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4. </v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>4-</v>
-      </c>
-      <c r="M5" t="str">
-        <f>"["&amp;B5&amp;"]"</f>
-        <v>[4]</v>
-      </c>
-      <c r="N5" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B5 &amp; "
-" &amp; M$1 &amp; ": " &amp; M5 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 4
@@ -636,34 +629,31 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3">
+        <v>45244</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-14-5.md</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5. </v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>5-</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+        <v>[5]</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">5. </v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>5-</v>
-      </c>
-      <c r="M6" t="str">
-        <f>"["&amp;B6&amp;"]"</f>
-        <v>[5]</v>
-      </c>
-      <c r="N6" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B6 &amp; "
-" &amp; M$1 &amp; ": " &amp; M6 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 5
@@ -676,34 +666,31 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3">
+        <v>45251</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-21-6.md</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6. </v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>6-</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>[6]</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">6. </v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>6-</v>
-      </c>
-      <c r="M7" t="str">
-        <f>"["&amp;B7&amp;"]"</f>
-        <v>[6]</v>
-      </c>
-      <c r="N7" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B7 &amp; "
-" &amp; M$1 &amp; ": " &amp; M7 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 6
@@ -716,34 +703,31 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>45258</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-11-28-7.md</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7. </v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>7-</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>[7]</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">7. </v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>7-</v>
-      </c>
-      <c r="M8" t="str">
-        <f>"["&amp;B8&amp;"]"</f>
-        <v>[7]</v>
-      </c>
-      <c r="N8" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B8 &amp; "
-" &amp; M$1 &amp; ": " &amp; M8 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 7
@@ -756,34 +740,31 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>45265</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-05-8.md</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8. </v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>8-</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>[8]</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">8. </v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>8-</v>
-      </c>
-      <c r="M9" t="str">
-        <f>"["&amp;B9&amp;"]"</f>
-        <v>[8]</v>
-      </c>
-      <c r="N9" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B9 &amp; "
-" &amp; M$1 &amp; ": " &amp; M9 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 8
@@ -796,34 +777,31 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
+      <c r="C10" s="3">
+        <v>45272</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-12-9.md</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9. </v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>9-</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>[9]</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9. </v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>9-</v>
-      </c>
-      <c r="M10" t="str">
-        <f>"["&amp;B10&amp;"]"</f>
-        <v>[9]</v>
-      </c>
-      <c r="N10" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B10 &amp; "
-" &amp; M$1 &amp; ": " &amp; M10 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 9
@@ -836,34 +814,31 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>45279</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2023-12-19-10.md</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">10. </v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>10-</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="str">
+        <v>[10]</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">10. </v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>10-</v>
-      </c>
-      <c r="M11" t="str">
-        <f>"["&amp;B11&amp;"]"</f>
-        <v>[10]</v>
-      </c>
-      <c r="N11" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B11 &amp; "
-" &amp; M$1 &amp; ": " &amp; M11 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 10
@@ -876,34 +851,31 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3">
+        <v>45300</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2024-01-09-11.md</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">11. </v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>11-</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
+        <v>[11]</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">11. </v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>11-</v>
-      </c>
-      <c r="M12" t="str">
-        <f>"["&amp;B12&amp;"]"</f>
-        <v>[11]</v>
-      </c>
-      <c r="N12" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B12 &amp; "
-" &amp; M$1 &amp; ": " &amp; M12 &amp; "
-level: overview
----"</f>
         <v>---
 layout: post
 session: 11
@@ -916,29 +888,31 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:D15" si="4">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
-        <v>0</v>
+      <c r="C13" s="3">
+        <v>45307</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2024-01-16-12.md</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G15" si="5">B13 &amp; ". " &amp; F13</f>
+        <f t="shared" ref="G13:G16" si="6">B13 &amp; ". " &amp; F13</f>
         <v xml:space="preserve">12. </v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H15" si="6">B13</f>
+        <f t="shared" ref="H13:H16" si="7">B13</f>
         <v>12</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J15" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="J13:J16" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M15" si="8">"["&amp;B13&amp;"]"</f>
+        <f t="shared" ref="M13:M16" si="9">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N15" si="9">"---
+        <f t="shared" ref="N13:N16" si="10">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B13 &amp; "
 " &amp; M$1 &amp; ": " &amp; M13 &amp; "
@@ -956,29 +930,31 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>45314</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(LEN(C12),TEXT(C12, "YYYY-MM-DD") &amp; "-" &amp; B14 &amp; ".md",)</f>
+        <v>2024-01-09-13.md</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">13. </v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13-</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[13]</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>---
 layout: post
 session: 13
@@ -991,29 +967,31 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C15" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B15 &amp; ".md",)</f>
+        <v>2024-01-16-14.md</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">14. </v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14-</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[14]</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>---
 layout: post
 session: 14
@@ -1021,6 +999,49 @@
 level: overview
 ---</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45328</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(LEN(C14),TEXT(C14, "YYYY-MM-DD") &amp; "-" &amp; B16 &amp; ".md",)</f>
+        <v>2024-01-23-15.md</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">15. </v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="8"/>
+        <v>15-</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="9"/>
+        <v>[15]</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="10"/>
+        <v>---
+layout: post
+session: 15
+tags: [15]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C6060-0A96-224F-8174-E17F0A5B1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD7049-9A40-0947-B93B-5B1AB96E1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>filename</t>
   </si>
@@ -78,6 +78,51 @@
   </si>
   <si>
     <t>zotero-readings</t>
+  </si>
+  <si>
+    <t>Aphrahat</t>
+  </si>
+  <si>
+    <t>Edessa</t>
+  </si>
+  <si>
+    <t>Ephrem</t>
+  </si>
+  <si>
+    <t>Bar Ebroyo</t>
+  </si>
+  <si>
+    <t>Einführung</t>
+  </si>
+  <si>
+    <t>Syrisches Christentum Heute</t>
+  </si>
+  <si>
+    <t>Malabar</t>
+  </si>
+  <si>
+    <t>Abdisho bar Brikha</t>
+  </si>
+  <si>
+    <t>Narsai</t>
+  </si>
+  <si>
+    <t>Jakob von Sarugh</t>
+  </si>
+  <si>
+    <t>Ishodad von Merw</t>
+  </si>
+  <si>
+    <t>Timotheus</t>
+  </si>
+  <si>
+    <t>Dionysius bar Salibi</t>
+  </si>
+  <si>
+    <t>Abschluss, Prüfungsvorbereitung</t>
+  </si>
+  <si>
+    <t>Theodor bar Koni</t>
   </si>
 </sst>
 </file>
@@ -411,7 +456,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,10 +527,12 @@
         <v>2023-10-17-1.md</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" t="str">
         <f>B2 &amp; ". " &amp; F2</f>
-        <v xml:space="preserve">1. </v>
+        <v>1. Einführung</v>
       </c>
       <c r="H2">
         <f>B2</f>
@@ -493,7 +540,7 @@
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>1-</v>
+        <v>1-Einführung</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
@@ -525,9 +572,12 @@
         <f t="shared" ref="D3:D13" si="2">IF(LEN(C3),TEXT(C3, "YYYY-MM-DD") &amp; "-" &amp; B3 &amp; ".md",)</f>
         <v>2023-10-24-2.md</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G12" si="3">B3 &amp; ". " &amp; F3</f>
-        <v xml:space="preserve">2. </v>
+        <v>2. Aphrahat</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H12" si="4">B3</f>
@@ -535,7 +585,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>2-</v>
+        <v>2-Aphrahat</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -562,9 +612,12 @@
         <f t="shared" si="2"/>
         <v>2023-10-31-3.md</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">3. </v>
+        <v>3. Edessa</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
@@ -572,7 +625,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
-        <v>3-</v>
+        <v>3-Edessa</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -599,9 +652,12 @@
         <f t="shared" si="2"/>
         <v>2023-11-07-4.md</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">4. </v>
+        <v>4. Ephrem</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
@@ -609,7 +665,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
-        <v>4-</v>
+        <v>4-Ephrem</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -636,9 +692,12 @@
         <f t="shared" si="2"/>
         <v>2023-11-14-5.md</v>
       </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">5. </v>
+        <v>5. Narsai</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
@@ -646,7 +705,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
-        <v>5-</v>
+        <v>5-Narsai</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -673,9 +732,12 @@
         <f t="shared" si="2"/>
         <v>2023-11-21-6.md</v>
       </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">6. </v>
+        <v>6. Jakob von Sarugh</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
@@ -683,7 +745,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
-        <v>6-</v>
+        <v>6-Jakob-von-Sarugh</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -710,9 +772,12 @@
         <f t="shared" si="2"/>
         <v>2023-11-28-7.md</v>
       </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">7. </v>
+        <v>7. Ishodad von Merw</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
@@ -720,7 +785,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>7-</v>
+        <v>7-Ishodad-von-Merw</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -747,9 +812,12 @@
         <f t="shared" si="2"/>
         <v>2023-12-05-8.md</v>
       </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">8. </v>
+        <v>8. Theodor bar Koni</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -757,7 +825,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
-        <v>8-</v>
+        <v>8-Theodor-bar-Koni</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -784,9 +852,12 @@
         <f t="shared" si="2"/>
         <v>2023-12-12-9.md</v>
       </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">9. </v>
+        <v>9. Timotheus</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
@@ -794,7 +865,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
-        <v>9-</v>
+        <v>9-Timotheus</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -821,9 +892,12 @@
         <f t="shared" si="2"/>
         <v>2023-12-19-10.md</v>
       </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">10. </v>
+        <v>10. Dionysius bar Salibi</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
@@ -831,7 +905,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
-        <v>10-</v>
+        <v>10-Dionysius-bar-Salibi</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
@@ -858,9 +932,12 @@
         <f t="shared" si="2"/>
         <v>2024-01-09-11.md</v>
       </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">11. </v>
+        <v>11. Abdisho bar Brikha</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -868,7 +945,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
-        <v>11-</v>
+        <v>11-Abdisho-bar-Brikha</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -895,9 +972,12 @@
         <f t="shared" si="2"/>
         <v>2024-01-16-12.md</v>
       </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G16" si="6">B13 &amp; ". " &amp; F13</f>
-        <v xml:space="preserve">12. </v>
+        <v>12. Bar Ebroyo</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H16" si="7">B13</f>
@@ -905,7 +985,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J16" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>12-</v>
+        <v>12-Bar-Ebroyo</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13:M16" si="9">"["&amp;B13&amp;"]"</f>
@@ -937,9 +1017,12 @@
         <f>IF(LEN(C12),TEXT(C12, "YYYY-MM-DD") &amp; "-" &amp; B14 &amp; ".md",)</f>
         <v>2024-01-09-13.md</v>
       </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">13. </v>
+        <v>13. Malabar</v>
       </c>
       <c r="H14">
         <f t="shared" si="7"/>
@@ -947,7 +1030,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="8"/>
-        <v>13-</v>
+        <v>13-Malabar</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="9"/>
@@ -974,9 +1057,12 @@
         <f>IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B15 &amp; ".md",)</f>
         <v>2024-01-16-14.md</v>
       </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">14. </v>
+        <v>14. Syrisches Christentum Heute</v>
       </c>
       <c r="H15">
         <f t="shared" si="7"/>
@@ -984,7 +1070,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="8"/>
-        <v>14-</v>
+        <v>14-Syrisches-Christentum-Heute</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="9"/>
@@ -1011,9 +1097,12 @@
         <f>IF(LEN(C14),TEXT(C14, "YYYY-MM-DD") &amp; "-" &amp; B16 &amp; ".md",)</f>
         <v>2024-01-23-15.md</v>
       </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">15. </v>
+        <v>15. Abschluss, Prüfungsvorbereitung</v>
       </c>
       <c r="H16">
         <f t="shared" si="7"/>
@@ -1021,7 +1110,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="8"/>
-        <v>15-</v>
+        <v>15-Abschluss,-Prüfungsvorbereitung</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="9"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD7049-9A40-0947-B93B-5B1AB96E1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCD413C-07FC-A84D-886B-9DD8A0F7AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>filename</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Theodor bar Koni</t>
+  </si>
+  <si>
+    <t>[bruns12UeberPascha1991]</t>
   </si>
 </sst>
 </file>
@@ -455,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +590,9 @@
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Aphrahat</v>
       </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
         <v>[2]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCD413C-07FC-A84D-886B-9DD8A0F7AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B1F6D-0978-3744-B326-8641B90EA336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>filename</t>
   </si>
@@ -125,7 +125,13 @@
     <t>Theodor bar Koni</t>
   </si>
   <si>
-    <t>[bruns12UeberPascha1991]</t>
+    <t>aphrahat.jpg</t>
+  </si>
+  <si>
+    <t>Describe Aphrahat's view of Christians' relationship to Jewish observances.</t>
+  </si>
+  <si>
+    <t>aphrahat12UeberPascha1991a</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +154,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,13 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,12 +600,18 @@
         <f t="shared" ref="H3:H12" si="4">B3</f>
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Aphrahat</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B1F6D-0978-3744-B326-8641B90EA336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B966CAC-E899-A840-A861-A54C3CEE3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1600" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>filename</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>aphrahat12UeberPascha1991a</t>
+  </si>
+  <si>
+    <t>[waltersDoctrinaAddai2021, illertDoctrinaAddai2007, phillipsDoctrineAddai1876]</t>
+  </si>
+  <si>
+    <t>[scott`AfremNisibisNisibeneforthcoming, beckCarmen1961, beckSermoReprehensioneII1970]</t>
+  </si>
+  <si>
+    <t>Explain several ways Edessa is significant in the early history of Syriac Christianity.</t>
+  </si>
+  <si>
+    <t>edessa.jpg</t>
+  </si>
+  <si>
+    <t>cover.jpg</t>
+  </si>
+  <si>
+    <t>ephrem.jpg</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,6 +573,9 @@
         <f>B2</f>
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Einführung</v>
@@ -649,10 +670,19 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
         <v>3-Edessa</v>
       </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v>[3]</v>
@@ -689,9 +719,15 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
         <v>4-Ephrem</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B966CAC-E899-A840-A861-A54C3CEE3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E558EAF0-0667-5C46-A965-A9DAFB6F006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>filename</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>ephrem.jpg</t>
+  </si>
+  <si>
+    <t>Describe how Ephrem brought together poetry and scriptural exegesis in his songs and sermons.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,6 +732,9 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>[4]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E558EAF0-0667-5C46-A965-A9DAFB6F006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A3D74-249A-8942-8A48-AF435699B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>filename</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Describe how Ephrem brought together poetry and scriptural exegesis in his songs and sermons.</t>
+  </si>
+  <si>
+    <t>[feldmannSughithaEngelGabriel1896a]</t>
+  </si>
+  <si>
+    <t>narsai-borg-sir-79-1v.jpg</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,9 +777,15 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
         <v>5-Narsai</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A3D74-249A-8942-8A48-AF435699B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A171B-9706-5D4E-9104-A6EA52CF75ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>filename</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>narsai-borg-sir-79-1v.jpg</t>
+  </si>
+  <si>
+    <t>1. Give some examples of Narsai's relationship to other literary and scriptural traditions. 2. Know where to look for Syriac lexical resources.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,6 +790,9 @@
       <c r="K6" t="s">
         <v>39</v>
       </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>[5]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A171B-9706-5D4E-9104-A6EA52CF75ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CE9B2-6C6C-1749-951A-AA1270F8B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>filename</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>1. Give some examples of Narsai's relationship to other literary and scriptural traditions. 2. Know where to look for Syriac lexical resources.</t>
+  </si>
+  <si>
+    <t>[bickelHomilieUeberDecke1867a, scottYaqubBishopSerughBatnanforthcominga]</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,6 +836,9 @@
         <f t="shared" si="5"/>
         <v>6-Jakob-von-Sarugh</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>[6]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CE9B2-6C6C-1749-951A-AA1270F8B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B3A46B-83D9-1F42-AC58-1F61F5B36813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>filename</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>[bickelHomilieUeberDecke1867a, scottYaqubBishopSerughBatnanforthcominga]</t>
+  </si>
+  <si>
+    <t>jacob-serugh.webp</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,6 +835,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
         <v>6-Jakob-von-Sarugh</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B3A46B-83D9-1F42-AC58-1F61F5B36813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AC95C-DD73-8F4E-8541-4437307FC3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>filename</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Dionysius bar Salibi</t>
-  </si>
-  <si>
-    <t>Abschluss, Prüfungsvorbereitung</t>
   </si>
   <si>
     <t>Theodor bar Koni</t>
@@ -506,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -640,17 +637,17 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Aphrahat</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -689,17 +686,17 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
         <v>3-Edessa</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -738,17 +735,17 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
         <v>4-Ephrem</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -769,11 +766,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45244</v>
+        <v>45251</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-14-5.md</v>
+        <v>2023-11-21-5.md</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -787,17 +784,17 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
         <v>5-Narsai</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -818,11 +815,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>45251</v>
+        <v>45258</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-21-6.md</v>
+        <v>2023-11-28-6.md</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -836,14 +833,14 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
         <v>6-Jakob-von-Sarugh</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -864,11 +861,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>45258</v>
+        <v>45265</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-28-7.md</v>
+        <v>2023-12-05-7.md</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -904,14 +901,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>45265</v>
+        <v>45272</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-05-8.md</v>
+        <v>2023-12-12-8.md</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
@@ -944,11 +941,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>45272</v>
+        <v>45279</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-12-9.md</v>
+        <v>2023-12-19-9.md</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -984,11 +981,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>45279</v>
+        <v>45300</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-19-10.md</v>
+        <v>2024-01-09-10.md</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -1024,11 +1021,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>45300</v>
+        <v>45307</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2024-01-09-11.md</v>
+        <v>2024-01-16-11.md</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1064,33 +1061,33 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>45307</v>
+        <v>45314</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2024-01-16-12.md</v>
+        <v>2024-01-23-12.md</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G16" si="6">B13 &amp; ". " &amp; F13</f>
+        <f t="shared" ref="G13:G15" si="6">B13 &amp; ". " &amp; F13</f>
         <v>12. Bar Ebroyo</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="7">B13</f>
+        <f t="shared" ref="H13:H15" si="7">B13</f>
         <v>12</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J16" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="J13:J15" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-Bar-Ebroyo</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M16" si="9">"["&amp;B13&amp;"]"</f>
+        <f t="shared" ref="M13:M15" si="9">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N16" si="10">"---
+        <f t="shared" ref="N13:N15" si="10">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B13 &amp; "
 " &amp; M$1 &amp; ": " &amp; M13 &amp; "
@@ -1109,11 +1106,11 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>45314</v>
+        <v>45321</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(LEN(C12),TEXT(C12, "YYYY-MM-DD") &amp; "-" &amp; B14 &amp; ".md",)</f>
-        <v>2024-01-09-13.md</v>
+        <v>2024-01-16-13.md</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1149,11 +1146,11 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>45321</v>
+        <v>45328</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B15 &amp; ".md",)</f>
-        <v>2024-01-16-14.md</v>
+        <v>2024-01-23-14.md</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1184,51 +1181,11 @@
 ---</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45328</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>IF(LEN(C14),TEXT(C14, "YYYY-MM-DD") &amp; "-" &amp; B16 &amp; ".md",)</f>
-        <v>2024-01-23-15.md</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="6"/>
-        <v>15. Abschluss, Prüfungsvorbereitung</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="8"/>
-        <v>15-Abschluss,-Prüfungsvorbereitung</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="9"/>
-        <v>[15]</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="10"/>
-        <v>---
-layout: post
-session: 15
-tags: [15]
-level: overview
----</v>
-      </c>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AC95C-DD73-8F4E-8541-4437307FC3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F66B7F-1278-404E-9F6A-454CEB2C2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="38040" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>filename</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>jacob-serugh.webp</t>
+  </si>
+  <si>
+    <t>kyz-kala.jpg</t>
+  </si>
+  <si>
+    <t>gibsonStLukeBooks1911</t>
+  </si>
+  <si>
+    <t>Observe the use of contrast and metaphor in Jacob of Sarugh's writing.</t>
+  </si>
+  <si>
+    <t>Describe how Ishodad uses literary sources on both the literal and spiritual levels of his commentary.</t>
   </si>
 </sst>
 </file>
@@ -505,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,6 +854,9 @@
       <c r="K7" t="s">
         <v>41</v>
       </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>[6]</v>
@@ -878,9 +893,18 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
         <v>7-Ishodad-von-Merw</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F66B7F-1278-404E-9F6A-454CEB2C2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F22F8-03D1-3742-83D9-FCA81EEE843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="38040" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Describe how Ishodad uses literary sources on both the literal and spiritual levels of his commentary.</t>
+  </si>
+  <si>
+    <t>tigris.jpg</t>
+  </si>
+  <si>
+    <t>buttsTheodoreBarKoni2021</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,9 +948,15 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
         <v>8-Theodor-bar-Koni</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F22F8-03D1-3742-83D9-FCA81EEE843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF73A3-B5B3-A347-96AB-25D8D52FD93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="38040" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>tigris.jpg</t>
   </si>
   <si>
-    <t>buttsTheodoreBarKoni2021</t>
+    <t>[buttsTheodoreBarKoni2021a]</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF73A3-B5B3-A347-96AB-25D8D52FD93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B54941-237D-094A-952E-A71732B6AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="38040" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="36000" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>filename</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>[buttsTheodoreBarKoni2021a]</t>
+  </si>
+  <si>
+    <t>Identify some of the important themes in early Christian-Muslim relations from the perspective of the Syriac communities.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,6 +961,9 @@
       <c r="K9" t="s">
         <v>48</v>
       </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>[8]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B54941-237D-094A-952E-A71732B6AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7E557C-A27F-9C46-813F-D4417C0A459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="36000" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>filename</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Identify some of the important themes in early Christian-Muslim relations from the perspective of the Syriac communities.</t>
+  </si>
+  <si>
+    <t>stucco-ctesiphon.jpg</t>
+  </si>
+  <si>
+    <t>heimgartnerBrief402019a</t>
+  </si>
+  <si>
+    <t>Describe the position Timothy I took (theologically and practically) on behalf of his community toward Islamic rulers.</t>
   </si>
 </sst>
 </file>
@@ -1000,9 +1009,18 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
         <v>9-Timotheus</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7E557C-A27F-9C46-813F-D4417C0A459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69895624-993C-354C-A801-FF12EAEEF3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="36000" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>filename</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Describe the position Timothy I took (theologically and practically) on behalf of his community toward Islamic rulers.</t>
+  </si>
+  <si>
+    <t>dionysiusbarsalibiChapters142005</t>
+  </si>
+  <si>
+    <t>yoldat-aloho-diyarbakir.jpg</t>
   </si>
 </sst>
 </file>
@@ -535,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,9 +1064,15 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
         <v>10-Dionysius-bar-Salibi</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69895624-993C-354C-A801-FF12EAEEF3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379C082-E4CF-3D4F-B293-6388B90F1B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="36000" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>filename</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>yoldat-aloho-diyarbakir.jpg</t>
+  </si>
+  <si>
+    <t>scottAbdishoBarBrikha[forthcoming]a</t>
+  </si>
+  <si>
+    <t>Identify some purposes Dionysios seems to have in his use of themes from the Quran and Islamic literature.</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,6 +1080,9 @@
       <c r="K11" t="s">
         <v>53</v>
       </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>[10]</v>
@@ -1113,6 +1122,9 @@
       <c r="J12" t="str">
         <f t="shared" si="5"/>
         <v>11-Abdisho-bar-Brikha</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379C082-E4CF-3D4F-B293-6388B90F1B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39637EC0-94C0-B443-884B-2092AFD4FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="36000" windowHeight="20580" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>filename</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Identify some purposes Dionysios seems to have in his use of themes from the Quran and Islamic literature.</t>
+  </si>
+  <si>
+    <t>pearl.jpg</t>
+  </si>
+  <si>
+    <t>Comment on some of the literary developments of the Syriac rennaisance.</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,12 +1125,18 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
         <v>11-Abdisho-bar-Brikha</v>
       </c>
       <c r="K12" t="s">
         <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39637EC0-94C0-B443-884B-2092AFD4FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FAB1FB-3B3A-0044-B762-10FFA7EEFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>filename</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Comment on some of the literary developments of the Syriac rennaisance.</t>
+  </si>
+  <si>
+    <t>budgePrefaceTakingEdessa1932</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1181,9 @@
         <f t="shared" ref="J13:J15" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-Bar-Ebroyo</v>
       </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13:M15" si="9">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23syrisch/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FAB1FB-3B3A-0044-B762-10FFA7EEFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D83AD-8A0E-D148-AC3B-6EA1A577A582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>filename</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>budgePrefaceTakingEdessa1932</t>
+  </si>
+  <si>
+    <t>Explain the importance of Syriac historiography for understanding Near Eastern history.</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,6 +1187,9 @@
       <c r="K13" t="s">
         <v>59</v>
       </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13:M15" si="9">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
